--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_4_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22445.61410523156</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188460306.92621</v>
+        <v>47202864.22970127</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10769.37314907106</v>
+        <v>1043968.233634971</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21146.07587612867</v>
+        <v>2019985.439892731</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31522.77860318628</v>
+        <v>2996002.646150493</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42981.71166167508</v>
+        <v>3913379.399505974</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54440.64472016384</v>
+        <v>4830756.152861455</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65138.20838620317</v>
+        <v>5784891.45747134</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75835.77205224249</v>
+        <v>6739026.762081223</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86533.3357182818</v>
+        <v>7693162.066691105</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97992.26877677061</v>
+        <v>8610538.820046581</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109451.2018352594</v>
+        <v>9527915.573402056</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119942.5212123607</v>
+        <v>10503932.77965982</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130433.8405894621</v>
+        <v>11479949.98591758</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140925.1599665634</v>
+        <v>12455967.19217535</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152384.0930250522</v>
+        <v>13373343.94553084</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163843.026083541</v>
+        <v>14290720.69888633</v>
       </c>
     </row>
   </sheetData>
